--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="2">
         <v>5.7</v>
@@ -481,7 +481,7 @@
         <v>2E-3</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="D3" s="2">
         <v>5.7</v>
@@ -516,7 +516,7 @@
         <v>2E-3</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="2">
         <v>5.7</v>
@@ -551,7 +551,7 @@
         <v>2E-3</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="3">
         <v>5.4</v>
@@ -586,7 +586,7 @@
         <v>2E-3</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>350</v>
+        <v>3500</v>
       </c>
       <c r="D6" s="3">
         <v>5.4</v>
@@ -621,7 +621,7 @@
         <v>2E-3</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="D7" s="3">
         <v>5.4</v>
@@ -656,7 +656,7 @@
         <v>2E-3</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D8" s="3">
         <v>5.0999999999999996</v>
@@ -691,7 +691,7 @@
         <v>2E-3</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>550</v>
+        <v>5500</v>
       </c>
       <c r="D9" s="3">
         <v>5.0999999999999996</v>
@@ -726,7 +726,7 @@
         <v>2E-3</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="D10" s="3">
         <v>5.0999999999999996</v>
@@ -761,7 +761,7 @@
         <v>2E-3</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -481,7 +481,7 @@
         <v>2E-3</v>
       </c>
       <c r="K2" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -516,7 +516,7 @@
         <v>2E-3</v>
       </c>
       <c r="K3" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -551,7 +551,7 @@
         <v>2E-3</v>
       </c>
       <c r="K4" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>r</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>fixed_cost</t>
+  </si>
+  <si>
+    <t>days_between_financing</t>
+  </si>
+  <si>
+    <t>financing_period</t>
+  </si>
+  <si>
+    <t>ordering_period</t>
+  </si>
+  <si>
+    <t>delivery_period</t>
   </si>
 </sst>
 </file>
@@ -393,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K4"/>
+      <selection activeCell="K2" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -411,10 +423,15 @@
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -448,8 +465,20 @@
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -481,10 +510,22 @@
         <v>2E-3</v>
       </c>
       <c r="K2" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -516,10 +557,22 @@
         <v>2E-3</v>
       </c>
       <c r="K3" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>30</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -551,10 +604,22 @@
         <v>2E-3</v>
       </c>
       <c r="K4" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -586,10 +651,22 @@
         <v>2E-3</v>
       </c>
       <c r="K5" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
+        <v>30</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,10 +698,22 @@
         <v>2E-3</v>
       </c>
       <c r="K6" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1">
+        <v>30</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -656,10 +745,22 @@
         <v>2E-3</v>
       </c>
       <c r="K7" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1">
+        <v>30</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -691,10 +792,22 @@
         <v>2E-3</v>
       </c>
       <c r="K8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1">
+        <v>30</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -726,10 +839,22 @@
         <v>2E-3</v>
       </c>
       <c r="K9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <v>30</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -761,33 +886,45 @@
         <v>2E-3</v>
       </c>
       <c r="K10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K10"/>
+      <selection activeCell="G5" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G2:G5"/>
+      <selection activeCell="F5" sqref="F5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>0.99</v>
       </c>
       <c r="G2" s="1">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="H2" s="1">
         <v>0.8</v>
@@ -545,7 +545,7 @@
         <v>0.99</v>
       </c>
       <c r="G3" s="1">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1">
         <v>0.8</v>
@@ -592,7 +592,7 @@
         <v>0.99</v>
       </c>
       <c r="G4" s="1">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="H4" s="1">
         <v>0.8</v>
@@ -636,7 +636,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.99</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
@@ -683,7 +683,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.99</v>
+        <v>0.2</v>
       </c>
       <c r="G6" s="1">
         <v>60</v>
@@ -730,7 +730,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.99</v>
+        <v>0.2</v>
       </c>
       <c r="G7" s="1">
         <v>60</v>

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>0.99</v>
       </c>
       <c r="G2" s="1">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1">
         <v>0.8</v>
@@ -510,7 +510,7 @@
         <v>2E-3</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1">
         <v>10</v>
@@ -545,7 +545,7 @@
         <v>0.99</v>
       </c>
       <c r="G3" s="1">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1">
         <v>0.8</v>
@@ -557,7 +557,7 @@
         <v>2E-3</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="L3" s="1">
         <v>10</v>
@@ -592,7 +592,7 @@
         <v>0.99</v>
       </c>
       <c r="G4" s="1">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1">
         <v>0.8</v>
@@ -604,7 +604,7 @@
         <v>2E-3</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="L4" s="1">
         <v>10</v>
@@ -636,7 +636,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.2</v>
+        <v>0.99</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
@@ -651,7 +651,7 @@
         <v>2E-3</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1">
         <v>10</v>
@@ -683,7 +683,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2</v>
+        <v>0.99</v>
       </c>
       <c r="G6" s="1">
         <v>60</v>
@@ -698,7 +698,7 @@
         <v>2E-3</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1">
         <v>10</v>
@@ -730,7 +730,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.2</v>
+        <v>0.99</v>
       </c>
       <c r="G7" s="1">
         <v>60</v>
@@ -745,7 +745,7 @@
         <v>2E-3</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1">
         <v>10</v>
@@ -792,7 +792,7 @@
         <v>2E-3</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L8" s="1">
         <v>10</v>
@@ -839,7 +839,7 @@
         <v>2E-3</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L9" s="1">
         <v>10</v>
@@ -886,7 +886,7 @@
         <v>2E-3</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L10" s="1">
         <v>10</v>

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -489,7 +489,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="2">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="E2" s="2">
         <v>0.5</v>
@@ -504,22 +504,22 @@
         <v>0.8</v>
       </c>
       <c r="I2" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J2" s="1">
         <v>2E-3</v>
       </c>
       <c r="K2" s="1">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1">
         <v>30</v>
       </c>
       <c r="N2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>1500</v>
       </c>
       <c r="D3" s="2">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="E3" s="2">
         <v>0.5</v>
@@ -551,16 +551,16 @@
         <v>0.8</v>
       </c>
       <c r="I3" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J3" s="1">
         <v>2E-3</v>
       </c>
       <c r="K3" s="1">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1">
         <v>30</v>
@@ -583,7 +583,7 @@
         <v>2000</v>
       </c>
       <c r="D4" s="2">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="E4" s="2">
         <v>0.5</v>
@@ -598,22 +598,22 @@
         <v>0.8</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="1">
         <v>2E-3</v>
       </c>
       <c r="K4" s="1">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
       </c>
       <c r="N4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -630,7 +630,7 @@
         <v>3000</v>
       </c>
       <c r="D5" s="3">
-        <v>5.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="2">
         <v>0.5</v>
@@ -645,16 +645,16 @@
         <v>0.8</v>
       </c>
       <c r="I5" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="1">
         <v>2E-3</v>
       </c>
       <c r="K5" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" s="1">
         <v>30</v>
@@ -677,7 +677,7 @@
         <v>3500</v>
       </c>
       <c r="D6" s="3">
-        <v>5.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E6" s="2">
         <v>0.5</v>
@@ -692,16 +692,16 @@
         <v>0.8</v>
       </c>
       <c r="I6" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="1">
         <v>2E-3</v>
       </c>
       <c r="K6" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="L6" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M6" s="1">
         <v>30</v>
@@ -724,7 +724,7 @@
         <v>4000</v>
       </c>
       <c r="D7" s="3">
-        <v>5.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E7" s="2">
         <v>0.5</v>
@@ -739,16 +739,16 @@
         <v>0.8</v>
       </c>
       <c r="I7" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="1">
         <v>2E-3</v>
       </c>
       <c r="K7" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="L7" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1">
         <v>30</v>
@@ -771,7 +771,7 @@
         <v>5000</v>
       </c>
       <c r="D8" s="3">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>0.5</v>
@@ -786,16 +786,16 @@
         <v>0.8</v>
       </c>
       <c r="I8" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="1">
         <v>2E-3</v>
       </c>
       <c r="K8" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L8" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M8" s="1">
         <v>30</v>
@@ -818,7 +818,7 @@
         <v>5500</v>
       </c>
       <c r="D9" s="3">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>0.5</v>
@@ -833,16 +833,16 @@
         <v>0.8</v>
       </c>
       <c r="I9" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="1">
         <v>2E-3</v>
       </c>
       <c r="K9" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L9" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1">
         <v>30</v>
@@ -865,7 +865,7 @@
         <v>6000</v>
       </c>
       <c r="D10" s="3">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>0.5</v>
@@ -880,16 +880,16 @@
         <v>0.8</v>
       </c>
       <c r="I10" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="1">
         <v>2E-3</v>
       </c>
       <c r="K10" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1">
         <v>30</v>

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>r</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>delivery_period</t>
+  </si>
+  <si>
+    <t>fixed_assets</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,10 +431,11 @@
     <col min="13" max="13" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -477,8 +481,11 @@
       <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -524,8 +531,11 @@
       <c r="O2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -571,8 +581,11 @@
       <c r="O3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -618,8 +631,11 @@
       <c r="O4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -665,8 +681,11 @@
       <c r="O5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -712,8 +731,11 @@
       <c r="O6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="1">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -759,8 +781,11 @@
       <c r="O7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -806,8 +831,11 @@
       <c r="O8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -853,8 +881,11 @@
       <c r="O9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="1">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -900,31 +931,34 @@
       <c r="O10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>r</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>fixed_assets</t>
+  </si>
+  <si>
+    <t>payment_term</t>
+  </si>
+  <si>
+    <t>tc_rate</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,10 +438,11 @@
     <col min="14" max="14" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="17" max="17" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,8 +491,14 @@
       <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -534,8 +547,14 @@
       <c r="P2" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -584,8 +603,14 @@
       <c r="P3" s="1">
         <v>4500</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="1">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -634,8 +659,14 @@
       <c r="P4" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -684,8 +715,14 @@
       <c r="P5" s="1">
         <v>9000</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -734,8 +771,14 @@
       <c r="P6" s="1">
         <v>10500</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="1">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -784,8 +827,14 @@
       <c r="P7" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="1">
+        <v>10</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -834,8 +883,14 @@
       <c r="P8" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="1">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -884,8 +939,14 @@
       <c r="P9" s="1">
         <v>16500</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="1">
+        <v>10</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -934,31 +995,37 @@
       <c r="P10" s="1">
         <v>18000</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="1">
+        <v>10</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>r</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>tc_rate</t>
+  </si>
+  <si>
+    <t>long_term_debt</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,10 +442,12 @@
     <col min="15" max="15" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -497,8 +502,11 @@
       <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -553,8 +561,11 @@
       <c r="R2" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -609,8 +620,11 @@
       <c r="R3" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -665,8 +679,11 @@
       <c r="R4" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -721,8 +738,11 @@
       <c r="R5" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -777,8 +797,11 @@
       <c r="R6" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -833,8 +856,11 @@
       <c r="R7" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -889,8 +915,11 @@
       <c r="R8" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -945,8 +974,11 @@
       <c r="R9" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1001,31 +1033,34 @@
       <c r="R10" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/run_sheets/oligopoly_heterogeneous_wcap.xlsx
+++ b/run_sheets/oligopoly_heterogeneous_wcap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1">
         <v>10</v>
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1">
         <v>30</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>4500</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1">
         <v>10</v>
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>6000</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="1">
         <v>10</v>
@@ -718,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1">
         <v>30</v>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="P5" s="1">
-        <v>9000</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1">
         <v>10</v>
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="L6" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1">
         <v>30</v>
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="1">
-        <v>10500</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1">
         <v>10</v>
@@ -836,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
         <v>30</v>
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="P7" s="1">
-        <v>12000</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="1">
         <v>10</v>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
         <v>30</v>
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="1">
-        <v>15000</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="1">
         <v>10</v>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
         <v>30</v>
@@ -966,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>16500</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="1">
         <v>10</v>
@@ -1013,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M10" s="1">
         <v>30</v>
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="1">
-        <v>18000</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="1">
         <v>10</v>
